--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,63 +46,60 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -112,12 +109,12 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -127,97 +124,118 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -578,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -647,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7945205479452054</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,38 +765,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L5">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="L5">
-        <v>106</v>
-      </c>
-      <c r="M5">
-        <v>106</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -789,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,16 +836,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -847,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.825065274151436</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>0.8113207547169812</v>
@@ -997,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.80625</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5423728813559322</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,16 +1236,16 @@
         <v>240</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5167785234899329</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5098039215686274</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4871794871794872</v>
+        <v>0.44</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4533333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>0.7407407407407407</v>
@@ -1447,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1597,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1665,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2987012987012987</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>189</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.257936507936508</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1715,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1765,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1849865951742627</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1765,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6411764705882353</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L25">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1797,37 +1815,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08333333333333333</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>275</v>
+        <v>3060</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1847,87 +1865,63 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01981050818260121</v>
+        <v>0.01123069723912026</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1138</v>
+        <v>2113</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6234309623430963</v>
+      </c>
+      <c r="L27">
+        <v>149</v>
+      </c>
+      <c r="M27">
+        <v>149</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
-      <c r="L27">
-        <v>39</v>
-      </c>
-      <c r="M27">
-        <v>39</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.01064516129032258</v>
-      </c>
-      <c r="C28">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>0.17</v>
-      </c>
-      <c r="F28">
-        <v>0.83</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3067</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K28">
-        <v>0.5966101694915255</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1939,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.5732217573221757</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L29">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="M29">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1965,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1991,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2017,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5168539325842697</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2043,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.4705882352941176</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2069,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.34375</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2095,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.3424657534246575</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2121,33 +2115,215 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K36">
-        <v>0.009096612296110414</v>
-      </c>
-      <c r="L36">
-        <v>29</v>
-      </c>
-      <c r="M36">
-        <v>42</v>
-      </c>
-      <c r="N36">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3159</v>
+      <c r="K37">
+        <v>0.421875</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43">
+        <v>0.01067503924646782</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>0.68</v>
+      </c>
+      <c r="O43">
+        <v>0.32</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
